--- a/real_data_sets/methods_coefficients/ecoli_coefficients.xlsx
+++ b/real_data_sets/methods_coefficients/ecoli_coefficients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>AS</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>k = 10</t>
+  </si>
+  <si>
+    <t>Cluster Number</t>
   </si>
 </sst>
 </file>
@@ -62,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -81,6 +84,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -119,11 +131,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="İyi" xfId="1" builtinId="26"/>
@@ -429,28 +445,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -467,7 +487,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3">
@@ -484,7 +504,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -501,7 +521,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -518,7 +538,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -535,7 +555,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B7">
@@ -552,7 +572,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8">
@@ -569,7 +589,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9">
@@ -586,7 +606,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B10">
@@ -622,5 +642,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>